--- a/embedding-server/articles.xlsx
+++ b/embedding-server/articles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hihilong/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jisu\Documents\카카오톡 받은 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6910718C-2A22-524D-B511-92CA3FE3F21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DA6A5F-0CB3-4F37-B94E-3BC66DA1E812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{4C5A1CFD-BB88-ED4C-9A4F-0D0EE5835997}"/>
+    <workbookView xWindow="2430" yWindow="2025" windowWidth="21600" windowHeight="11295" xr2:uid="{4C5A1CFD-BB88-ED4C-9A4F-0D0EE5835997}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
   <si>
     <t>카테고리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">내용 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -522,12 +518,16 @@
 이 사기는 해외 범죄조직이 AI 음성 클론을 이용해 가족 감정선을 자극해 돈을 갈취한 책임이 알려졌습니다 .</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -919,533 +919,533 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67A71BF-FECB-554A-A90F-B02B51BA028F}">
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="98.85546875" customWidth="1"/>
+    <col min="2" max="2" width="98.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="114">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="103.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="57">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" ht="69" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="76">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
       <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="57">
-      <c r="A6" t="s">
+    <row r="25" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="57">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="57">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="57">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="57">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="57">
-      <c r="A11" t="s">
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="57">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="57">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="57">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="57">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="57">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="57">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="57">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="57">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="57">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="57">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="57">
-      <c r="A22" t="s">
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="57">
-      <c r="A23" t="s">
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="276" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="57">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="57">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="57">
-      <c r="A26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="57">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="57">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="57">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="57">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="57">
-      <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="57">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="57">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="86.25" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="114">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="285">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    <row r="37" spans="1:2" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="95">
-      <c r="A36" t="s">
+    <row r="38" spans="1:2" ht="120.75" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="114">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="133">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="39" spans="1:2" ht="69" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="76">
-      <c r="A39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="41" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="57">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="57">
-      <c r="A41" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="57">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="57">
-      <c r="A43" t="s">
+      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="86.25" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="86.25" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="86.25" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="162" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="86.25" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="345" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="396.75" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="379.5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="189.75" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="189.75" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="143.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="120.75" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="57">
-      <c r="A44" t="s">
+      <c r="B61" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="138" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="120.75" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="69" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="57">
-      <c r="A45" t="s">
+      <c r="B64" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="69" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="57">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="57">
-      <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="114">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="95">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="95">
-      <c r="A50" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="95">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="95">
-      <c r="A52" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="95">
-      <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="380">
-      <c r="A54" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="114">
-      <c r="A55" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="398">
-      <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="409.6">
-      <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="190">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="209">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="143" customHeight="1">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="133">
-      <c r="A61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="133">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="133">
-      <c r="A63" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="76">
-      <c r="A64" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="76">
-      <c r="A65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
